--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_36_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_36_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_24</t>
+          <t>model_36_8_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9784967486926227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7904195567643226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9992636556988472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9999999993255431</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9995215034831028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1437923405057999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.881365789724108</v>
+        <v>1.401465388946181</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.007390148210170467</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2912913050017003</v>
+        <v>3.644295691455537e-09</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.003695075903396529</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2695143141617357</v>
       </c>
       <c r="M2" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3791996050971044</v>
       </c>
       <c r="N2" t="n">
-        <v>1.012137758608463</v>
+        <v>1.017795794185416</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3953429173374843</v>
       </c>
       <c r="P2" t="n">
-        <v>110.6440522154555</v>
+        <v>109.8787702000496</v>
       </c>
       <c r="Q2" t="n">
-        <v>175.2444709334701</v>
+        <v>174.4791889180642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_22</t>
+          <t>model_36_8_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.978494975061538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7904175096665453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9992638247949155</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9999999999961816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9995216169147186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1438042007850297</v>
       </c>
       <c r="H3" t="n">
-        <v>1.881365789724108</v>
+        <v>1.401479077898443</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.007388451116835587</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2912913050017003</v>
+        <v>2.063179114238895e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.003694199954636391</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2693862470724159</v>
       </c>
       <c r="M3" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3792152433447654</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012137758608463</v>
+        <v>1.017797262018038</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3953592213377239</v>
       </c>
       <c r="P3" t="n">
-        <v>110.6440522154555</v>
+        <v>109.8786052428609</v>
       </c>
       <c r="Q3" t="n">
-        <v>175.2444709334701</v>
+        <v>174.4790239608755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_21</t>
+          <t>model_36_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9815938673959099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7896873160188616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.997064553689023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9956022151452124</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9965538984460537</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1230818934759983</v>
       </c>
       <c r="H4" t="n">
-        <v>1.881365789724108</v>
+        <v>1.406361886182738</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.02946092373792741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.02376256575786345</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.02661170220258505</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2790345536985803</v>
       </c>
       <c r="M4" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3508302915598913</v>
       </c>
       <c r="N4" t="n">
-        <v>1.012137758608463</v>
+        <v>1.015232661465454</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3657658633904172</v>
       </c>
       <c r="P4" t="n">
-        <v>110.6440522154555</v>
+        <v>110.1898106890775</v>
       </c>
       <c r="Q4" t="n">
-        <v>175.2444709334701</v>
+        <v>174.7902294070921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_20</t>
+          <t>model_36_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9823828280681403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7867149805658328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9920046733170106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9848802685690756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9895147614960647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1178061098279642</v>
       </c>
       <c r="H5" t="n">
-        <v>1.881365789724108</v>
+        <v>1.426237907043488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.08024323551295712</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.0816964959023502</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.08096976836630698</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2826255311360849</v>
       </c>
       <c r="M5" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3432289466638327</v>
       </c>
       <c r="N5" t="n">
-        <v>1.012137758608463</v>
+        <v>1.014579728495332</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3578409135051803</v>
       </c>
       <c r="P5" t="n">
-        <v>110.6440522154555</v>
+        <v>110.2774302859958</v>
       </c>
       <c r="Q5" t="n">
-        <v>175.2444709334701</v>
+        <v>174.8778490040104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_19</t>
+          <t>model_36_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9818492249937539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.782776855436674</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9856843995653342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9715743130047795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.98075253586224</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1213743160434013</v>
       </c>
       <c r="H6" t="n">
-        <v>1.881365789724108</v>
+        <v>1.452572167915572</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.1436751921134473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.1535926105391506</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.1486339783580805</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2810953989490836</v>
       </c>
       <c r="M6" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3483881686329219</v>
       </c>
       <c r="N6" t="n">
-        <v>1.012137758608463</v>
+        <v>1.015021331039652</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3632197742345554</v>
       </c>
       <c r="P6" t="n">
-        <v>110.6440522154555</v>
+        <v>110.2177519749127</v>
       </c>
       <c r="Q6" t="n">
-        <v>175.2444709334701</v>
+        <v>174.8181706929273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_18</t>
+          <t>model_36_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9806841860071661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7785881795945305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9791515052617183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9580117429597015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9717623718463183</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1291649371112256</v>
       </c>
       <c r="H7" t="n">
-        <v>1.881365789724108</v>
+        <v>1.480581862559063</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.2092410654006026</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.2268752910665859</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.2180583884629225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.276999100982641</v>
       </c>
       <c r="M7" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3593952380196844</v>
       </c>
       <c r="N7" t="n">
-        <v>1.012137758608463</v>
+        <v>1.015985501235449</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.3746954373528871</v>
       </c>
       <c r="P7" t="n">
-        <v>110.6440522154555</v>
+        <v>110.0933302181063</v>
       </c>
       <c r="Q7" t="n">
-        <v>175.2444709334701</v>
+        <v>174.6937489361209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_17</t>
+          <t>model_36_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9792513572669329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7744732938091194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9728844583498857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9452242959509848</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9632161856730364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1387462694947346</v>
       </c>
       <c r="H8" t="n">
-        <v>1.881365789724108</v>
+        <v>1.508098122753414</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.2721388232104072</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.2959697466739413</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.2840542849421742</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2718107757293498</v>
       </c>
       <c r="M8" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3724866031077286</v>
       </c>
       <c r="N8" t="n">
-        <v>1.012137758608463</v>
+        <v>1.017171290537711</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.388344128955591</v>
       </c>
       <c r="P8" t="n">
-        <v>110.6440522154555</v>
+        <v>109.950216826483</v>
       </c>
       <c r="Q8" t="n">
-        <v>175.2444709334701</v>
+        <v>174.5506355444976</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_16</t>
+          <t>model_36_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9777293482189009</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7705660204469669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9670605103206303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9335660624827478</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9553529312864923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.148923951007132</v>
       </c>
       <c r="H9" t="n">
-        <v>1.881365789724108</v>
+        <v>1.534226077717468</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.3305895222069895</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.358962718944497</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.3447764026169272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2662530459501437</v>
       </c>
       <c r="M9" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3859066610038391</v>
       </c>
       <c r="N9" t="n">
-        <v>1.012137758608463</v>
+        <v>1.018430884232634</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.4023355064996885</v>
       </c>
       <c r="P9" t="n">
-        <v>110.6440522154555</v>
+        <v>109.8086389985166</v>
       </c>
       <c r="Q9" t="n">
-        <v>175.2444709334701</v>
+        <v>174.4090577165312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_15</t>
+          <t>model_36_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9762073035042673</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7669172336983012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9617266434449284</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9230971856971574</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.948224334786897</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1591018710222583</v>
       </c>
       <c r="H10" t="n">
-        <v>1.881365789724108</v>
+        <v>1.558625531506913</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.3841216357618141</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.4155292362350696</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.39982529894222</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2606839021821079</v>
       </c>
       <c r="M10" t="n">
-        <v>0.313168763303489</v>
+        <v>0.3988757588802036</v>
       </c>
       <c r="N10" t="n">
-        <v>1.012137758608463</v>
+        <v>1.019690507444744</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.4158567257223835</v>
       </c>
       <c r="P10" t="n">
-        <v>110.6440522154555</v>
+        <v>109.6764211673364</v>
       </c>
       <c r="Q10" t="n">
-        <v>175.2444709334701</v>
+        <v>174.2768398853511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_23</t>
+          <t>model_36_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9853335416814407</v>
+        <v>0.9747309702607014</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7186534328933325</v>
+        <v>0.7635409932531652</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9426640301032529</v>
+        <v>0.9568760684407871</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8307842642474543</v>
+        <v>0.9137603627293513</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9184105048663558</v>
+        <v>0.9418058287506614</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09807467430903673</v>
+        <v>0.1689741182198726</v>
       </c>
       <c r="H11" t="n">
-        <v>1.881365789724108</v>
+        <v>1.581202466909696</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3216753496599956</v>
+        <v>0.4328033029235417</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2912913050017003</v>
+        <v>0.4659789233088897</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3064833571851864</v>
+        <v>0.4493906900219439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2264634257027209</v>
+        <v>0.2552810681574527</v>
       </c>
       <c r="M11" t="n">
-        <v>0.313168763303489</v>
+        <v>0.4110646156261478</v>
       </c>
       <c r="N11" t="n">
-        <v>1.012137758608463</v>
+        <v>1.020912300473902</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3265010059060288</v>
+        <v>0.4285644873344143</v>
       </c>
       <c r="P11" t="n">
-        <v>110.6440522154555</v>
+        <v>109.5560194448304</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.2444709334701</v>
+        <v>174.156438162845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_14</t>
+          <t>model_36_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9853336160727588</v>
+        <v>0.9733236604461227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7186533745977857</v>
+        <v>0.76043435552465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9426646448319993</v>
+        <v>0.9524805864083892</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8307839969854975</v>
+        <v>0.9054552675173245</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9184109187085997</v>
+        <v>0.9360438815079382</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09807417685395034</v>
+        <v>0.1783848054300262</v>
       </c>
       <c r="H12" t="n">
-        <v>1.881366179546697</v>
+        <v>1.601976567705028</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3216719008113096</v>
+        <v>0.4769175353874985</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2912917650717041</v>
+        <v>0.5108538723156056</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3064818026252514</v>
+        <v>0.4938859614844945</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2264607404522919</v>
+        <v>0.250148436981751</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3131679690740264</v>
+        <v>0.4223562541623199</v>
       </c>
       <c r="N12" t="n">
-        <v>1.012137697043234</v>
+        <v>1.022076970665278</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3265001778645736</v>
+        <v>0.4403368342999854</v>
       </c>
       <c r="P12" t="n">
-        <v>110.644062359896</v>
+        <v>109.4476244676397</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.2444810779106</v>
+        <v>174.0480431856544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_13</t>
+          <t>model_36_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9853339824829858</v>
+        <v>0.9719971661029724</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7186529677175513</v>
+        <v>0.7575863158792718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9426675163688998</v>
+        <v>0.9485050211180783</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8307842400841015</v>
+        <v>0.8980733010587519</v>
       </c>
       <c r="F13" t="n">
-        <v>0.918412957097857</v>
+        <v>0.9308779467537311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09807172666707566</v>
+        <v>0.1872550792106175</v>
       </c>
       <c r="H13" t="n">
-        <v>1.881368900356698</v>
+        <v>1.621021421927689</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3216557904596719</v>
+        <v>0.5168173711961177</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2912913465969726</v>
+        <v>0.5507408766112364</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3064741456054132</v>
+        <v>0.5337786678150758</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2264545894871015</v>
+        <v>0.2453161314252926</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3131640571123635</v>
+        <v>0.4327297993097049</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012137393807184</v>
+        <v>1.023174759087195</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3264960993626038</v>
+        <v>0.4511520027404933</v>
       </c>
       <c r="P13" t="n">
-        <v>110.6441123265143</v>
+        <v>109.3505670633247</v>
       </c>
       <c r="Q13" t="n">
-        <v>175.2445310445289</v>
+        <v>173.9509857813393</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9853339972146874</v>
+        <v>0.9707563155946274</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7186529111341833</v>
+        <v>0.7549823449552702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9426674230559748</v>
+        <v>0.9449127194043236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8307840120042258</v>
+        <v>0.8915094345948499</v>
       </c>
       <c r="F14" t="n">
-        <v>0.918413039062642</v>
+        <v>0.9262471907637623</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09807162815611858</v>
+        <v>0.1955526522735118</v>
       </c>
       <c r="H14" t="n">
-        <v>1.88136927872994</v>
+        <v>1.638434187486672</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3216563139786391</v>
+        <v>0.5528706713150118</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2912917392181689</v>
+        <v>0.5862074384428154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3064738377123141</v>
+        <v>0.5695385830261553</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2264560865561339</v>
+        <v>0.2408149186433982</v>
       </c>
       <c r="M14" t="n">
-        <v>0.313163899829017</v>
+        <v>0.4422133560550968</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012137381615431</v>
+        <v>1.024201669852722</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3264959353833797</v>
+        <v>0.4610392941302054</v>
       </c>
       <c r="P14" t="n">
-        <v>110.6441143354727</v>
+        <v>109.26385122945</v>
       </c>
       <c r="Q14" t="n">
-        <v>175.2445330534873</v>
+        <v>173.8642699474646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_11</t>
+          <t>model_36_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9853340535167241</v>
+        <v>0.969602138525674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.718652854657296</v>
+        <v>0.7526063037942332</v>
       </c>
       <c r="D15" t="n">
-        <v>0.94266813928471</v>
+        <v>0.9416687330135685</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8307834476751872</v>
+        <v>0.8856681361769714</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9184133522743589</v>
+        <v>0.9220955380203701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09807125166414002</v>
+        <v>0.2032706396480997</v>
       </c>
       <c r="H15" t="n">
-        <v>1.881369656391146</v>
+        <v>1.65432278567119</v>
       </c>
       <c r="I15" t="n">
-        <v>0.321652295678622</v>
+        <v>0.5854281857575441</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2912927106653064</v>
+        <v>0.6177697459110933</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3064726611616033</v>
+        <v>0.6015987370077398</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2264562610286489</v>
+        <v>0.2366413226148055</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3131632987183205</v>
+        <v>0.4508554531644258</v>
       </c>
       <c r="N15" t="n">
-        <v>1.012137335020642</v>
+        <v>1.025156850875304</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3264953086821563</v>
+        <v>0.4700493032050858</v>
       </c>
       <c r="P15" t="n">
-        <v>110.6441220133854</v>
+        <v>109.1864339752515</v>
       </c>
       <c r="Q15" t="n">
-        <v>175.2445407314</v>
+        <v>173.7868526932661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_10</t>
+          <t>model_36_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9853341585283769</v>
+        <v>0.9685332366821648</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7186527225180647</v>
+        <v>0.7504417237458183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9426689033162055</v>
+        <v>0.9387399565741603</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8307836684197106</v>
+        <v>0.8804642631288493</v>
       </c>
       <c r="F16" t="n">
-        <v>0.918413936471885</v>
+        <v>0.9183718409311576</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09807054945073436</v>
+        <v>0.2104183911974864</v>
       </c>
       <c r="H16" t="n">
-        <v>1.881370540006794</v>
+        <v>1.668797342421914</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3216480091879792</v>
+        <v>0.6148221688817403</v>
       </c>
       <c r="J16" t="n">
-        <v>0.29129233067133</v>
+        <v>0.6458878507262832</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3064704666778802</v>
+        <v>0.6303541049153615</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2264530048721597</v>
+        <v>0.2327915819826132</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3131621775545929</v>
+        <v>0.4587138445670529</v>
       </c>
       <c r="N16" t="n">
-        <v>1.012137248114447</v>
+        <v>1.026041459297519</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3264941397881677</v>
+        <v>0.4782422425988355</v>
       </c>
       <c r="P16" t="n">
-        <v>110.6441363339107</v>
+        <v>109.1173147826085</v>
       </c>
       <c r="Q16" t="n">
-        <v>175.2445550519253</v>
+        <v>173.7177335006231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_9</t>
+          <t>model_36_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9853343699772009</v>
+        <v>0.9675468083658472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7186525549514984</v>
+        <v>0.7484723250096016</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9426702274033486</v>
+        <v>0.936096578030138</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8307844022586948</v>
+        <v>0.8758235112495281</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9184151128089645</v>
+        <v>0.915030416146084</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09806913549147414</v>
+        <v>0.217014641890787</v>
       </c>
       <c r="H17" t="n">
-        <v>1.881371660525194</v>
+        <v>1.681966720839243</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3216405805843384</v>
+        <v>0.6413518224491381</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2912910674264291</v>
+        <v>0.6709632410283457</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3064660478769461</v>
+        <v>0.6561574655884934</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2264525709355048</v>
+        <v>0.2292501229604808</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3131599199953183</v>
+        <v>0.4658483035182022</v>
       </c>
       <c r="N17" t="n">
-        <v>1.012137073122316</v>
+        <v>1.026857813766195</v>
       </c>
       <c r="O17" t="n">
-        <v>0.326491786119921</v>
+        <v>0.4856804302379013</v>
       </c>
       <c r="P17" t="n">
-        <v>110.6441651696715</v>
+        <v>109.0555809071337</v>
       </c>
       <c r="Q17" t="n">
-        <v>175.2445838876861</v>
+        <v>173.6559996251484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_8</t>
+          <t>model_36_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9853344751198594</v>
+        <v>0.9666391918145368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.718652495647637</v>
+        <v>0.7466826765808572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9426708989816152</v>
+        <v>0.9337113415950847</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8307843209222522</v>
+        <v>0.8716798967139177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9184156977622415</v>
+        <v>0.9120308096296534</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09806843240203303</v>
+        <v>0.2230838779485891</v>
       </c>
       <c r="H18" t="n">
-        <v>1.881372057090388</v>
+        <v>1.69393410812283</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3216368127894599</v>
+        <v>0.6652906928169087</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2912912074405856</v>
+        <v>0.6933524474422273</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3064638505543148</v>
+        <v>0.6793212157248677</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2264556178250312</v>
+        <v>0.2260280921372497</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3131587974207862</v>
+        <v>0.4723175604914443</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012136986107703</v>
+        <v>1.027608944705211</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3264906157550671</v>
+        <v>0.4924250968737023</v>
       </c>
       <c r="P18" t="n">
-        <v>110.6441795083716</v>
+        <v>109.0004148878884</v>
       </c>
       <c r="Q18" t="n">
-        <v>175.2445982263862</v>
+        <v>173.600833605903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_7</t>
+          <t>model_36_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9853345819001827</v>
+        <v>0.9658061439083678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7186523559828031</v>
+        <v>0.7450578199130824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9426717885353221</v>
+        <v>0.9315591589168106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8307841053446099</v>
+        <v>0.8679772143661398</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9184162918090728</v>
+        <v>0.9093367817225786</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0980677183615191</v>
+        <v>0.2286544731329746</v>
       </c>
       <c r="H19" t="n">
-        <v>1.881372991029776</v>
+        <v>1.704799532142017</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3216318220742035</v>
+        <v>0.6868905733930315</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2912915785401909</v>
+        <v>0.7133591634764973</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3064616190725919</v>
+        <v>0.7001252075011493</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2264495059587689</v>
+        <v>0.2230807665066086</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3131576573573112</v>
+        <v>0.4781782859279315</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01213689773778</v>
+        <v>1.02829836366204</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3264894271567296</v>
+        <v>0.498535325525395</v>
       </c>
       <c r="P19" t="n">
-        <v>110.6441940705114</v>
+        <v>108.9510865316751</v>
       </c>
       <c r="Q19" t="n">
-        <v>175.2446127885261</v>
+        <v>173.5515052496897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_6</t>
+          <t>model_36_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9853348908570797</v>
+        <v>0.9650432015531915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7186520213985665</v>
+        <v>0.7435839014040539</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9426741109204386</v>
+        <v>0.9296175653126361</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8307842815889781</v>
+        <v>0.8646653362297205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.918418010684995</v>
+        <v>0.9069164577202521</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09806565236532679</v>
+        <v>0.2337562721750654</v>
       </c>
       <c r="H20" t="n">
-        <v>1.881375228396106</v>
+        <v>1.714655631998661</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3216187926609791</v>
+        <v>0.7063769257370454</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2912912751496593</v>
+        <v>0.731254245795729</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3064551622749079</v>
+        <v>0.7188155857663872</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2264430501419129</v>
+        <v>0.2203893689033031</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3131543586880546</v>
+        <v>0.4834834766308622</v>
       </c>
       <c r="N20" t="n">
-        <v>1.012136642049313</v>
+        <v>1.028929764231842</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3264859880562937</v>
+        <v>0.5040663691798081</v>
       </c>
       <c r="P20" t="n">
-        <v>110.6442362050281</v>
+        <v>108.9069525566777</v>
       </c>
       <c r="Q20" t="n">
-        <v>175.2446549230427</v>
+        <v>173.5073712746923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_5</t>
+          <t>model_36_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9853350913646801</v>
+        <v>0.9643457119093932</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7186517923345059</v>
+        <v>0.7422479905614919</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9426752712421245</v>
+        <v>0.9278662016728608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8307853594716497</v>
+        <v>0.8617005546990353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9184191261899592</v>
+        <v>0.9047411389023309</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09806431157007951</v>
+        <v>0.2384203886347884</v>
       </c>
       <c r="H21" t="n">
-        <v>1.881376760148535</v>
+        <v>1.723588873954177</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3216122828402732</v>
+        <v>0.7239540793153116</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2912894196611692</v>
+        <v>0.747273859852999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3064509719841622</v>
+        <v>0.7356139695841553</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2264459648492396</v>
+        <v>0.2179277525772801</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3131522178910434</v>
+        <v>0.4882831029585074</v>
       </c>
       <c r="N21" t="n">
-        <v>1.012136476111989</v>
+        <v>1.029506997040502</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3264837561211216</v>
+        <v>0.5090703255368174</v>
       </c>
       <c r="P21" t="n">
-        <v>110.6442635500644</v>
+        <v>108.8674396493018</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.244682268079</v>
+        <v>173.4678583673164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_4</t>
+          <t>model_36_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9853354969862382</v>
+        <v>0.9637091037653652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7186513615944317</v>
+        <v>0.7410379156796311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9426781811280158</v>
+        <v>0.9262866101990803</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8307852634211705</v>
+        <v>0.8590445287143478</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9184213828781206</v>
+        <v>0.902785449207863</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09806159917685271</v>
+        <v>0.242677390225215</v>
       </c>
       <c r="H22" t="n">
-        <v>1.881379640509395</v>
+        <v>1.731680650261063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3215959573370458</v>
+        <v>0.7398072815258598</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2912895850043584</v>
+        <v>0.7616251740258658</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3064424949447753</v>
+        <v>0.7507163195686608</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2264356949028543</v>
+        <v>0.2156835357343349</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3131478870707141</v>
+        <v>0.4926229696484067</v>
       </c>
       <c r="N22" t="n">
-        <v>1.012136140425182</v>
+        <v>1.030033845159698</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3264792409288049</v>
+        <v>0.5135949493364682</v>
       </c>
       <c r="P22" t="n">
-        <v>110.6443188694909</v>
+        <v>108.8320446598828</v>
       </c>
       <c r="Q22" t="n">
-        <v>175.2447375875055</v>
+        <v>173.4324633778974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_3</t>
+          <t>model_36_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9853417900714749</v>
+        <v>0.9631290281948383</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7186446931055648</v>
+        <v>0.7399425397597792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9427230147070914</v>
+        <v>0.9248624134988075</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8307927734245109</v>
+        <v>0.8566638431940596</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9184564010002294</v>
+        <v>0.901027190655133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09801951728689767</v>
+        <v>0.2465563582363312</v>
       </c>
       <c r="H23" t="n">
-        <v>1.881424232725153</v>
+        <v>1.739005434080855</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3213444248827835</v>
+        <v>0.754100900256901</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2912766571364869</v>
+        <v>0.7744887401375762</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3063109526229523</v>
+        <v>0.7642940543707052</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2263639263154451</v>
+        <v>0.2136368149006331</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3130806881410887</v>
+        <v>0.4965444171837312</v>
       </c>
       <c r="N23" t="n">
-        <v>1.012130932354641</v>
+        <v>1.030513907700823</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3264091812016244</v>
+        <v>0.517683341011887</v>
       </c>
       <c r="P23" t="n">
-        <v>110.6451773283035</v>
+        <v>108.8003293556267</v>
       </c>
       <c r="Q23" t="n">
-        <v>175.2455960463181</v>
+        <v>173.4007480736413</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_2</t>
+          <t>model_36_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9853427873336013</v>
+        <v>0.962600999337231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.718643703190311</v>
+        <v>0.7389515182118614</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9427296681521209</v>
+        <v>0.9235781802507201</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8307942121548535</v>
+        <v>0.8545289734431614</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9184619512149276</v>
+        <v>0.8994456175839002</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09801284859046704</v>
+        <v>0.2500872896384999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.881430852293013</v>
+        <v>1.745632399735015</v>
       </c>
       <c r="I24" t="n">
-        <v>0.321307096670491</v>
+        <v>0.7669898083735749</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2912741804776989</v>
+        <v>0.786024089072385</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3062901037571639</v>
+        <v>0.7765073774328419</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2263539280317513</v>
+        <v>0.2117736914809804</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3130700378357326</v>
+        <v>0.5000872820203488</v>
       </c>
       <c r="N24" t="n">
-        <v>1.012130107034261</v>
+        <v>1.030950897100223</v>
       </c>
       <c r="O24" t="n">
-        <v>0.32639807749072</v>
+        <v>0.5213770329393407</v>
       </c>
       <c r="P24" t="n">
-        <v>110.645313401679</v>
+        <v>108.7718905270151</v>
       </c>
       <c r="Q24" t="n">
-        <v>175.2457321196936</v>
+        <v>173.3723092450297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_1</t>
+          <t>model_36_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.985347626150759</v>
+        <v>0.9621209892725819</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7186383934079472</v>
+        <v>0.7380553889073698</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9427643307639783</v>
+        <v>0.9224204625265858</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8307995931011076</v>
+        <v>0.852612921064357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9184888864595603</v>
+        <v>0.8980230980983656</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09798049139785267</v>
+        <v>0.2532971191510511</v>
       </c>
       <c r="H25" t="n">
-        <v>1.881466358832129</v>
+        <v>1.751624820520447</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3211126269892522</v>
+        <v>0.7786089728778696</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2912649176106875</v>
+        <v>0.7963771013615796</v>
       </c>
       <c r="K25" t="n">
-        <v>0.30618892401352</v>
+        <v>0.7874924468899712</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2262930869606123</v>
+        <v>0.2100817691810686</v>
       </c>
       <c r="M25" t="n">
-        <v>0.313018356327313</v>
+        <v>0.5032863192567936</v>
       </c>
       <c r="N25" t="n">
-        <v>1.012126102495924</v>
+        <v>1.031348146808898</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3263441957934915</v>
+        <v>0.5247122598138608</v>
       </c>
       <c r="P25" t="n">
-        <v>110.6459737749939</v>
+        <v>108.7463841906157</v>
       </c>
       <c r="Q25" t="n">
-        <v>175.2463924930085</v>
+        <v>173.3468029086303</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_36_8_0</t>
+          <t>model_36_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.985349197329337</v>
+        <v>0.9616850557870774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7186367045897977</v>
+        <v>0.7372454320245814</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9427756550149642</v>
+        <v>0.9213768868866204</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8308015218191505</v>
+        <v>0.8508936008949252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9184976339153846</v>
+        <v>0.8967433948363885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09796998491946693</v>
+        <v>0.2562122083759093</v>
       </c>
       <c r="H26" t="n">
-        <v>1.881477651966871</v>
+        <v>1.757041005925162</v>
       </c>
       <c r="I26" t="n">
-        <v>0.321049093880767</v>
+        <v>0.7890825769185261</v>
       </c>
       <c r="J26" t="n">
-        <v>0.291261597477408</v>
+        <v>0.805667109839477</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3061560650085284</v>
+        <v>0.7973746519214542</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2262790797545302</v>
+        <v>0.2085410663565054</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3130015733498267</v>
+        <v>0.5061740890009181</v>
       </c>
       <c r="N26" t="n">
-        <v>1.012124802210204</v>
+        <v>1.031708919348626</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3263266983299081</v>
+        <v>0.5277229678945002</v>
       </c>
       <c r="P26" t="n">
-        <v>110.6461882471114</v>
+        <v>108.7234984778287</v>
       </c>
       <c r="Q26" t="n">
-        <v>175.246606965126</v>
+        <v>173.3239171958433</v>
       </c>
     </row>
   </sheetData>
